--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Sites/chord/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C39DD9-6559-EA43-B69F-8382A9EFD8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D48CFC8-ACF4-F841-B17A-9443F3590C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="32720" windowHeight="20540" xr2:uid="{7139B7E8-CBAF-C748-B190-630B9108EA14}"/>
   </bookViews>
@@ -703,13 +703,13 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A40"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="14" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="14" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="20" customWidth="1"/>
@@ -1257,7 +1257,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>33</v>
@@ -1419,7 +1419,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="AG2" s="12" t="str">
         <f>+B33</f>
-        <v>Forschungsergebnisse Eship</v>
+        <v>Eship</v>
       </c>
       <c r="AH2" s="12" t="str">
         <f>+B34</f>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="B33" s="10" t="str">
         <f>IF(Objekte!B32="","",Objekte!B32)</f>
-        <v>Forschungsergebnisse Eship</v>
+        <v>Eship</v>
       </c>
       <c r="C33" s="13" t="str">
         <f t="shared" si="6"/>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\2 Forschung\20 HTA\06 Tools\Visualisierungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\2 Forschung\20 HTA\06 Tools\Chord Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7587F279-96BF-4221-AAE5-640F045268E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E045BFD3-60B0-49CD-914A-8B7CA76C5185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7139B7E8-CBAF-C748-B190-630B9108EA14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7139B7E8-CBAF-C748-B190-630B9108EA14}"/>
   </bookViews>
   <sheets>
     <sheet name="Objekte" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="155">
   <si>
     <t>Name</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>Klaus Sailer, CEO @ SCE</t>
-  </si>
-  <si>
-    <t>Herberet Gillig</t>
   </si>
   <si>
     <t>Audrey Stolze</t>
@@ -821,6 +818,35 @@
   <si>
     <t>Where does the financing and/or mandate come from?</t>
   </si>
+  <si>
+    <t>Herbert Gillig</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">players </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contribute to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tool development</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1066,23 +1092,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>7718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>575047</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>195245</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>826400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
+        <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E1810E-D00C-484C-9838-615360C0C9B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552F8D49-5C34-4258-8040-7F0DE586A542}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1098,8 +1124,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5686424" y="2209800"/>
-          <a:ext cx="5594723" cy="4586270"/>
+          <a:off x="4838700" y="2207993"/>
+          <a:ext cx="5850838" cy="4792882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,7 +1439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91878D2E-2335-2344-A212-81A95D5F5CFC}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
@@ -1451,16 +1479,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="7"/>
@@ -1482,7 +1510,7 @@
         <v>59</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="7"/>
@@ -1498,13 +1526,13 @@
         <v>47</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="18"/>
       <c r="I4" s="17"/>
@@ -1518,13 +1546,13 @@
         <v>50</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="15"/>
@@ -1543,7 +1571,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="15"/>
@@ -1562,7 +1590,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="20"/>
       <c r="I7" s="17"/>
@@ -1582,7 +1610,7 @@
         <v>59</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="15"/>
@@ -1601,7 +1629,7 @@
         <v>59</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="15"/>
@@ -1620,7 +1648,7 @@
         <v>59</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="15"/>
@@ -1639,7 +1667,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="15"/>
@@ -1658,7 +1686,7 @@
         <v>58</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1679,7 +1707,7 @@
         <v>58</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1700,7 +1728,7 @@
         <v>58</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1721,7 +1749,7 @@
         <v>58</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1742,7 +1770,7 @@
         <v>58</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -1763,7 +1791,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="25"/>
@@ -1782,10 +1810,10 @@
         <v>60</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="25"/>
@@ -1798,16 +1826,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1822,13 +1850,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1840,16 +1868,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>63</v>
-      </c>
       <c r="D21" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="15"/>
@@ -1862,13 +1890,13 @@
         <v>10</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="15"/>
@@ -1884,10 +1912,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="15"/>
@@ -1897,16 +1925,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="15"/>
@@ -1916,16 +1944,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>73</v>
-      </c>
       <c r="E25" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="15"/>
@@ -1935,16 +1963,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="15"/>
@@ -1960,10 +1988,10 @@
         <v>6</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="15"/>
@@ -1973,16 +2001,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="15"/>
@@ -1992,16 +2020,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="15"/>
@@ -2017,10 +2045,10 @@
         <v>12</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="15"/>
@@ -2030,16 +2058,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="15"/>
@@ -2052,13 +2080,13 @@
         <v>13</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="15"/>
@@ -2071,13 +2099,13 @@
         <v>3</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="15"/>
@@ -2087,16 +2115,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>78</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="15"/>
@@ -2109,13 +2137,13 @@
         <v>14</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="15"/>
@@ -2125,16 +2153,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="15"/>
@@ -2144,16 +2172,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="15"/>
@@ -2172,7 +2200,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="15"/>
@@ -2182,16 +2210,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>88</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="15"/>
@@ -2201,16 +2229,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="15"/>
@@ -2223,13 +2251,13 @@
         <v>15</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="15"/>
@@ -2242,13 +2270,13 @@
         <v>16</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="15"/>
@@ -2258,16 +2286,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="15"/>
@@ -2277,16 +2305,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="15"/>
@@ -2296,16 +2324,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="15"/>
@@ -2318,13 +2346,13 @@
         <v>17</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="15"/>
@@ -2334,16 +2362,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="15"/>
@@ -2353,16 +2381,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2370,16 +2398,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2387,16 +2415,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2404,16 +2432,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2421,16 +2449,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="D52" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2438,16 +2466,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>121</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2477,11 +2505,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB990EC0-FFAA-B74E-9EDF-7CD3623B7898}">
   <dimension ref="A1:BH61"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BG10" sqref="BG10"/>
+      <selection pane="bottomRight" activeCell="AM29" sqref="AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2791,7 +2819,7 @@
       </c>
       <c r="T2" s="40" t="str">
         <f>+B20</f>
-        <v>Herberet Gillig</v>
+        <v>Herbert Gillig</v>
       </c>
       <c r="U2" s="40" t="str">
         <f>+B21</f>
@@ -3147,7 +3175,7 @@
       </c>
       <c r="BG3" s="22">
         <f>+BF3/BF$55*360</f>
-        <v>20.869565217391305</v>
+        <v>20.069686411149824</v>
       </c>
     </row>
     <row r="4" spans="1:59">
@@ -3356,7 +3384,7 @@
       </c>
       <c r="BG4" s="22">
         <f t="shared" ref="BG4:BG54" si="7">+BF4/BF$55*360</f>
-        <v>11.739130434782608</v>
+        <v>11.289198606271777</v>
       </c>
     </row>
     <row r="5" spans="1:59">
@@ -3579,7 +3607,7 @@
       </c>
       <c r="BG5" s="22">
         <f t="shared" si="7"/>
-        <v>9.1304347826086953</v>
+        <v>8.7804878048780495</v>
       </c>
     </row>
     <row r="6" spans="1:59">
@@ -3795,7 +3823,7 @@
       </c>
       <c r="BG6" s="22">
         <f t="shared" si="7"/>
-        <v>6.5217391304347831</v>
+        <v>6.2717770034843205</v>
       </c>
     </row>
     <row r="7" spans="1:59">
@@ -4022,7 +4050,7 @@
       </c>
       <c r="BG7" s="22">
         <f t="shared" si="7"/>
-        <v>3.9130434782608696</v>
+        <v>3.7630662020905925</v>
       </c>
     </row>
     <row r="8" spans="1:59">
@@ -4244,7 +4272,7 @@
       </c>
       <c r="BG8" s="22">
         <f t="shared" si="7"/>
-        <v>6.5217391304347831</v>
+        <v>6.2717770034843205</v>
       </c>
     </row>
     <row r="9" spans="1:59">
@@ -4469,7 +4497,7 @@
       </c>
       <c r="BG9" s="22">
         <f t="shared" si="7"/>
-        <v>6.5217391304347831</v>
+        <v>6.2717770034843205</v>
       </c>
     </row>
     <row r="10" spans="1:59">
@@ -4686,7 +4714,7 @@
       </c>
       <c r="BG10" s="22">
         <f t="shared" si="7"/>
-        <v>20.869565217391305</v>
+        <v>20.069686411149824</v>
       </c>
     </row>
     <row r="11" spans="1:59" s="3" customFormat="1">
@@ -4910,7 +4938,7 @@
       </c>
       <c r="BG11" s="38">
         <f t="shared" si="7"/>
-        <v>3.9130434782608696</v>
+        <v>3.7630662020905925</v>
       </c>
     </row>
     <row r="12" spans="1:59">
@@ -5127,7 +5155,7 @@
       </c>
       <c r="BG12" s="22">
         <f t="shared" si="7"/>
-        <v>23.478260869565215</v>
+        <v>22.578397212543553</v>
       </c>
     </row>
     <row r="13" spans="1:59">
@@ -5341,7 +5369,7 @@
       </c>
       <c r="BG13" s="22">
         <f t="shared" si="7"/>
-        <v>18.260869565217391</v>
+        <v>17.560975609756099</v>
       </c>
     </row>
     <row r="14" spans="1:59">
@@ -5568,7 +5596,7 @@
       </c>
       <c r="BG14" s="22">
         <f t="shared" si="7"/>
-        <v>9.1304347826086953</v>
+        <v>8.7804878048780495</v>
       </c>
     </row>
     <row r="15" spans="1:59">
@@ -5797,7 +5825,7 @@
       </c>
       <c r="BG15" s="22">
         <f t="shared" si="7"/>
-        <v>6.5217391304347831</v>
+        <v>6.2717770034843205</v>
       </c>
     </row>
     <row r="16" spans="1:59">
@@ -6029,7 +6057,7 @@
       </c>
       <c r="BG16" s="22">
         <f t="shared" si="7"/>
-        <v>2.6086956521739131</v>
+        <v>2.508710801393728</v>
       </c>
     </row>
     <row r="17" spans="1:59">
@@ -6258,7 +6286,7 @@
       </c>
       <c r="BG17" s="22">
         <f t="shared" si="7"/>
-        <v>6.5217391304347831</v>
+        <v>6.2717770034843205</v>
       </c>
     </row>
     <row r="18" spans="1:59" s="3" customFormat="1">
@@ -6485,7 +6513,7 @@
       </c>
       <c r="BG18" s="38">
         <f t="shared" si="7"/>
-        <v>9.1304347826086953</v>
+        <v>8.7804878048780495</v>
       </c>
     </row>
     <row r="19" spans="1:59">
@@ -6641,23 +6669,21 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM19" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN19" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO19" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP19" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ19" s="12" t="str">
+      <c r="AM19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP19" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ19" s="39" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6707,18 +6733,18 @@
       </c>
       <c r="BD19" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE19" s="9">
         <v>10</v>
       </c>
       <c r="BF19" s="9">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BG19" s="22">
         <f t="shared" si="7"/>
-        <v>13.043478260869566</v>
+        <v>15.05226480836237</v>
       </c>
     </row>
     <row r="20" spans="1:59">
@@ -6728,7 +6754,7 @@
       </c>
       <c r="B20" s="35" t="str">
         <f>IF(Objekte!B19="","",Objekte!B19)</f>
-        <v>Herberet Gillig</v>
+        <v>Herbert Gillig</v>
       </c>
       <c r="C20" s="11" t="str">
         <f t="shared" ref="C20:R35" si="11">IF($A20&gt;=C$1,"x","")</f>
@@ -6872,23 +6898,20 @@
       <c r="AL20" s="39">
         <v>1</v>
       </c>
-      <c r="AM20" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN20" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO20" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP20" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ20" s="12" t="str">
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO20" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP20" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ20" s="39" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6949,7 +6972,7 @@
       </c>
       <c r="BG20" s="22">
         <f t="shared" si="7"/>
-        <v>6.5217391304347831</v>
+        <v>6.2717770034843205</v>
       </c>
     </row>
     <row r="21" spans="1:59">
@@ -7105,23 +7128,22 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM21" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN21" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO21" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP21" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ21" s="12" t="str">
+      <c r="AM21" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO21" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP21" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ21" s="39" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7171,18 +7193,18 @@
       </c>
       <c r="BD21" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="9">
         <v>2</v>
       </c>
       <c r="BF21" s="9">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG21" s="22">
         <f t="shared" si="7"/>
-        <v>2.6086956521739131</v>
+        <v>3.7630662020905925</v>
       </c>
     </row>
     <row r="22" spans="1:59">
@@ -7338,23 +7360,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM22" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN22" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO22" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP22" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ22" s="12" t="str">
+      <c r="AM22" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN22" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO22" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP22" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ22" s="39" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7415,7 +7437,7 @@
       </c>
       <c r="BG22" s="22">
         <f t="shared" si="7"/>
-        <v>1.3043478260869565</v>
+        <v>1.254355400696864</v>
       </c>
     </row>
     <row r="23" spans="1:59">
@@ -7571,23 +7593,22 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM23" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN23" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO23" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP23" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ23" s="12" t="str">
+      <c r="AM23" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN23" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP23" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ23" s="39" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7637,18 +7658,18 @@
       </c>
       <c r="BD23" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23" s="9">
         <v>2</v>
       </c>
       <c r="BF23" s="9">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG23" s="22">
         <f t="shared" si="7"/>
-        <v>2.6086956521739131</v>
+        <v>3.7630662020905925</v>
       </c>
     </row>
     <row r="24" spans="1:59">
@@ -7803,25 +7824,20 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM24" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN24" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO24" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP24" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ24" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="AM24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="39">
+        <v>1</v>
       </c>
       <c r="AR24" s="11" t="str">
         <f t="shared" si="8"/>
@@ -7869,18 +7885,18 @@
       </c>
       <c r="BD24" s="9">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BE24" s="9">
         <v>7</v>
       </c>
       <c r="BF24" s="9">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BG24" s="22">
         <f t="shared" si="7"/>
-        <v>10.434782608695652</v>
+        <v>16.306620209059233</v>
       </c>
     </row>
     <row r="25" spans="1:59">
@@ -8036,23 +8052,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM25" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN25" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO25" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP25" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ25" s="12" t="str">
+      <c r="AM25" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN25" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO25" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP25" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ25" s="39" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -8113,7 +8129,7 @@
       </c>
       <c r="BG25" s="22">
         <f t="shared" si="7"/>
-        <v>2.6086956521739131</v>
+        <v>2.508710801393728</v>
       </c>
     </row>
     <row r="26" spans="1:59">
@@ -8269,23 +8285,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM26" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN26" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO26" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP26" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ26" s="12" t="str">
+      <c r="AM26" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN26" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO26" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP26" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ26" s="39" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -8346,7 +8362,7 @@
       </c>
       <c r="BG26" s="22">
         <f t="shared" si="7"/>
-        <v>1.3043478260869565</v>
+        <v>1.254355400696864</v>
       </c>
     </row>
     <row r="27" spans="1:59">
@@ -8502,23 +8518,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM27" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN27" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO27" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP27" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ27" s="12" t="str">
+      <c r="AM27" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN27" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO27" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP27" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ27" s="39" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -8579,7 +8595,7 @@
       </c>
       <c r="BG27" s="22">
         <f t="shared" si="7"/>
-        <v>1.3043478260869565</v>
+        <v>1.254355400696864</v>
       </c>
     </row>
     <row r="28" spans="1:59">
@@ -8735,23 +8751,21 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM28" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN28" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO28" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP28" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ28" s="12" t="str">
+      <c r="AM28" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP28" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ28" s="39" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -8801,18 +8815,18 @@
       </c>
       <c r="BD28" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE28" s="9">
         <v>6</v>
       </c>
       <c r="BF28" s="9">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG28" s="22">
         <f t="shared" si="7"/>
-        <v>7.8260869565217392</v>
+        <v>10.034843205574912</v>
       </c>
     </row>
     <row r="29" spans="1:59">
@@ -8968,23 +8982,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM29" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN29" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO29" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP29" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ29" s="12" t="str">
+      <c r="AM29" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN29" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO29" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP29" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ29" s="39" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -9045,7 +9059,7 @@
       </c>
       <c r="BG29" s="22">
         <f t="shared" si="7"/>
-        <v>2.6086956521739131</v>
+        <v>2.508710801393728</v>
       </c>
     </row>
     <row r="30" spans="1:59">
@@ -9201,23 +9215,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM30" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN30" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO30" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP30" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ30" s="12" t="str">
+      <c r="AM30" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN30" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO30" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP30" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ30" s="39" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -9278,7 +9292,7 @@
       </c>
       <c r="BG30" s="22">
         <f t="shared" si="7"/>
-        <v>1.3043478260869565</v>
+        <v>1.254355400696864</v>
       </c>
     </row>
     <row r="31" spans="1:59">
@@ -9434,23 +9448,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM31" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN31" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO31" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP31" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ31" s="12" t="str">
+      <c r="AM31" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN31" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO31" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP31" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ31" s="39" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -9511,7 +9525,7 @@
       </c>
       <c r="BG31" s="22">
         <f t="shared" si="7"/>
-        <v>1.3043478260869565</v>
+        <v>1.254355400696864</v>
       </c>
     </row>
     <row r="32" spans="1:59" s="3" customFormat="1">
@@ -9666,23 +9680,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM32" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN32" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO32" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP32" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ32" s="14" t="str">
+      <c r="AM32" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN32" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO32" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP32" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ32" s="43" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -9743,7 +9757,7 @@
       </c>
       <c r="BG32" s="38">
         <f t="shared" si="7"/>
-        <v>1.3043478260869565</v>
+        <v>1.254355400696864</v>
       </c>
     </row>
     <row r="33" spans="1:59">
@@ -9972,7 +9986,7 @@
       </c>
       <c r="BG33" s="22">
         <f t="shared" si="7"/>
-        <v>5.2173913043478262</v>
+        <v>5.0174216027874561</v>
       </c>
     </row>
     <row r="34" spans="1:59">
@@ -10201,7 +10215,7 @@
       </c>
       <c r="BG34" s="22">
         <f t="shared" si="7"/>
-        <v>7.8260869565217392</v>
+        <v>7.526132404181185</v>
       </c>
     </row>
     <row r="35" spans="1:59">
@@ -10430,7 +10444,7 @@
       </c>
       <c r="BG35" s="22">
         <f t="shared" si="7"/>
-        <v>5.2173913043478262</v>
+        <v>5.0174216027874561</v>
       </c>
     </row>
     <row r="36" spans="1:59">
@@ -10661,7 +10675,7 @@
       </c>
       <c r="BG36" s="22">
         <f t="shared" si="7"/>
-        <v>7.8260869565217392</v>
+        <v>7.526132404181185</v>
       </c>
     </row>
     <row r="37" spans="1:59">
@@ -10892,7 +10906,7 @@
       </c>
       <c r="BG37" s="22">
         <f t="shared" si="7"/>
-        <v>9.1304347826086953</v>
+        <v>8.7804878048780495</v>
       </c>
     </row>
     <row r="38" spans="1:59" s="3" customFormat="1">
@@ -11123,7 +11137,7 @@
       </c>
       <c r="BG38" s="38">
         <f t="shared" si="7"/>
-        <v>6.5217391304347831</v>
+        <v>6.2717770034843205</v>
       </c>
     </row>
     <row r="39" spans="1:59">
@@ -11356,7 +11370,7 @@
       </c>
       <c r="BG39" s="22">
         <f t="shared" si="7"/>
-        <v>2.6086956521739131</v>
+        <v>2.508710801393728</v>
       </c>
     </row>
     <row r="40" spans="1:59">
@@ -11589,7 +11603,7 @@
       </c>
       <c r="BG40" s="22">
         <f t="shared" si="7"/>
-        <v>2.6086956521739131</v>
+        <v>2.508710801393728</v>
       </c>
     </row>
     <row r="41" spans="1:59">
@@ -11822,7 +11836,7 @@
       </c>
       <c r="BG41" s="22">
         <f t="shared" si="7"/>
-        <v>3.9130434782608696</v>
+        <v>3.7630662020905925</v>
       </c>
     </row>
     <row r="42" spans="1:59">
@@ -12055,7 +12069,7 @@
       </c>
       <c r="BG42" s="22">
         <f t="shared" si="7"/>
-        <v>1.3043478260869565</v>
+        <v>1.254355400696864</v>
       </c>
     </row>
     <row r="43" spans="1:59" s="3" customFormat="1">
@@ -12288,7 +12302,7 @@
       </c>
       <c r="BG43" s="38">
         <f t="shared" si="7"/>
-        <v>1.3043478260869565</v>
+        <v>1.254355400696864</v>
       </c>
     </row>
     <row r="44" spans="1:59">
@@ -12500,7 +12514,7 @@
       </c>
       <c r="BG44" s="22">
         <f t="shared" si="7"/>
-        <v>19.565217391304348</v>
+        <v>18.815331010452962</v>
       </c>
     </row>
     <row r="45" spans="1:59">
@@ -12712,7 +12726,7 @@
       </c>
       <c r="BG45" s="22">
         <f t="shared" si="7"/>
-        <v>11.739130434782608</v>
+        <v>11.289198606271777</v>
       </c>
     </row>
     <row r="46" spans="1:59">
@@ -12924,7 +12938,7 @@
       </c>
       <c r="BG46" s="22">
         <f t="shared" si="7"/>
-        <v>1.3043478260869565</v>
+        <v>1.254355400696864</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="3" customFormat="1">
@@ -13136,7 +13150,7 @@
       </c>
       <c r="BG47" s="38">
         <f t="shared" si="7"/>
-        <v>5.2173913043478262</v>
+        <v>5.0174216027874561</v>
       </c>
     </row>
     <row r="48" spans="1:59">
@@ -13369,7 +13383,7 @@
       </c>
       <c r="BG48" s="22">
         <f t="shared" si="7"/>
-        <v>3.9130434782608696</v>
+        <v>3.7630662020905925</v>
       </c>
     </row>
     <row r="49" spans="1:60">
@@ -13602,7 +13616,7 @@
       </c>
       <c r="BG49" s="22">
         <f t="shared" si="7"/>
-        <v>15.652173913043478</v>
+        <v>15.05226480836237</v>
       </c>
     </row>
     <row r="50" spans="1:60">
@@ -13835,7 +13849,7 @@
       </c>
       <c r="BG50" s="22">
         <f t="shared" si="7"/>
-        <v>2.6086956521739131</v>
+        <v>2.508710801393728</v>
       </c>
     </row>
     <row r="51" spans="1:60">
@@ -14068,7 +14082,7 @@
       </c>
       <c r="BG51" s="22">
         <f t="shared" si="7"/>
-        <v>5.2173913043478262</v>
+        <v>5.0174216027874561</v>
       </c>
     </row>
     <row r="52" spans="1:60">
@@ -14301,7 +14315,7 @@
       </c>
       <c r="BG52" s="22">
         <f t="shared" si="7"/>
-        <v>2.6086956521739131</v>
+        <v>2.508710801393728</v>
       </c>
     </row>
     <row r="53" spans="1:60">
@@ -14534,7 +14548,7 @@
       </c>
       <c r="BG53" s="22">
         <f t="shared" si="7"/>
-        <v>9.1304347826086953</v>
+        <v>8.7804878048780495</v>
       </c>
     </row>
     <row r="54" spans="1:60" s="3" customFormat="1">
@@ -14767,7 +14781,7 @@
       </c>
       <c r="BG54" s="38">
         <f t="shared" si="7"/>
-        <v>7.8260869565217392</v>
+        <v>7.526132404181185</v>
       </c>
     </row>
     <row r="55" spans="1:60">
@@ -14775,7 +14789,7 @@
       <c r="B55" s="5"/>
       <c r="BD55" s="23">
         <f>SUM(BD3:BD54)</f>
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="BE55" s="23">
         <f>SUM(BE3:BE54)</f>
@@ -14783,11 +14797,11 @@
       </c>
       <c r="BF55" s="23">
         <f>SUM(BF3:BF54)</f>
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="BG55" s="23">
         <f>SUM(BG3:BG54)</f>
-        <v>360.00000000000017</v>
+        <v>359.99999999999983</v>
       </c>
     </row>
     <row r="56" spans="1:60">
@@ -14939,23 +14953,23 @@
       </c>
       <c r="AM56" s="21">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AN56" s="21">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AO56" s="21">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP56" s="21">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ56" s="39">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR56" s="21">
         <f t="shared" si="25"/>
@@ -15003,11 +15017,11 @@
       </c>
       <c r="BC56" s="21">
         <f>SUM(C56:BB56)</f>
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="BE56" s="46" t="str">
         <f>IF(BE55=BC56,"ok!","update!")</f>
-        <v>ok!</v>
+        <v>update!</v>
       </c>
     </row>
     <row r="57" spans="1:60">
@@ -15022,7 +15036,7 @@
       </c>
       <c r="BG57" s="9">
         <f>MAX(BG3:BG54)/MIN(BG3:BG41)</f>
-        <v>17.999999999999996</v>
+        <v>18</v>
       </c>
       <c r="BH57" s="9" t="s">
         <v>33</v>
@@ -15047,7 +15061,7 @@
       </c>
       <c r="D59" s="22">
         <f>AVERAGE(C$56:BB$56)</f>
-        <v>2.6538461538461537</v>
+        <v>2.8653846153846154</v>
       </c>
     </row>
     <row r="60" spans="1:60">
@@ -15076,331 +15090,329 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033B88DE-A976-416F-A188-A667752E2D7D}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="10.5625" customWidth="1"/>
+    <col min="2" max="2" width="4.5625" customWidth="1"/>
+    <col min="3" max="3" width="10.5625" customWidth="1"/>
+    <col min="4" max="4" width="4.5625" customWidth="1"/>
+    <col min="5" max="5" width="33.5625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="C12" t="s">
         <v>133</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>134</v>
-      </c>
-      <c r="E12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
         <v>133</v>
       </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
         <v>133</v>
       </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
         <v>133</v>
       </c>
-      <c r="C15" t="s">
-        <v>134</v>
-      </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" t="s">
-        <v>132</v>
-      </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>133</v>
-      </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" t="s">
-        <v>139</v>
-      </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>133</v>
-      </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="45"/>
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="B27" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
+      <c r="B27" s="45"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28">
-        <f>COUNTIF(A$12:A$25,$A28)</f>
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:C34" si="0">COUNTIF(C$12:C$25,$A28)</f>
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <f>+C28+B28</f>
-        <v>6</v>
+      <c r="B28" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:B34" si="1">COUNTIF(A$12:A$25,$A29)</f>
-        <v>3</v>
+        <f>COUNTIF(A$12:A$26,$A29)</f>
+        <v>2</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="C29:C35" si="0">COUNTIF(C$12:C$26,$A29)</f>
+        <v>4</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D34" si="2">+C29+B29</f>
+        <f>+C29+B29</f>
         <v>6</v>
       </c>
     </row>
@@ -15409,63 +15421,63 @@
         <v>131</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B30:B35" si="1">COUNTIF(A$12:A$26,$A30)</f>
         <v>3</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" ref="D30:D35" si="2">+C30+B30</f>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A$12:A$26,$A31)</f>
         <v>4</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
@@ -15474,7 +15486,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
@@ -15485,6 +15497,23 @@
         <v>3</v>
       </c>
       <c r="D34">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\2 Forschung\20 HTA\06 Tools\Chord Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E045BFD3-60B0-49CD-914A-8B7CA76C5185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5403FFC5-2CC8-467B-8116-F757B344840A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7139B7E8-CBAF-C748-B190-630B9108EA14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7139B7E8-CBAF-C748-B190-630B9108EA14}"/>
   </bookViews>
   <sheets>
     <sheet name="Objekte" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Visual Scoremap</t>
-  </si>
-  <si>
-    <t>Lern-Lösungs-Skript</t>
   </si>
   <si>
     <t>Community</t>
@@ -847,6 +844,9 @@
       <t xml:space="preserve"> tool development</t>
     </r>
   </si>
+  <si>
+    <t>Lösungs-Skript</t>
+  </si>
 </sst>
 </file>
 
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91878D2E-2335-2344-A212-81A95D5F5CFC}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="5"/>
     </row>
@@ -1479,16 +1479,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>91</v>
-      </c>
       <c r="D2" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="7"/>
@@ -1504,13 +1504,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="7"/>
@@ -1523,16 +1523,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="18"/>
       <c r="I4" s="17"/>
@@ -1543,16 +1543,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="15"/>
@@ -1562,16 +1562,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="15"/>
@@ -1581,16 +1581,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>54</v>
-      </c>
       <c r="D7" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="20"/>
       <c r="I7" s="17"/>
@@ -1604,13 +1604,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="15"/>
@@ -1623,13 +1623,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="15"/>
@@ -1639,16 +1639,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="15"/>
@@ -1658,16 +1658,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="15"/>
@@ -1677,16 +1677,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1698,16 +1698,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>38</v>
-      </c>
       <c r="D13" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1719,16 +1719,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1740,16 +1740,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1761,16 +1761,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>42</v>
-      </c>
       <c r="D16" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -1782,16 +1782,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="25"/>
@@ -1807,13 +1807,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="25"/>
@@ -1826,16 +1826,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1850,13 +1850,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1868,16 +1868,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>62</v>
-      </c>
       <c r="D21" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="15"/>
@@ -1890,13 +1890,13 @@
         <v>10</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="15"/>
@@ -1912,10 +1912,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="15"/>
@@ -1925,16 +1925,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="15"/>
@@ -1944,16 +1944,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>72</v>
-      </c>
       <c r="E25" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="15"/>
@@ -1963,16 +1963,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="15"/>
@@ -1988,10 +1988,10 @@
         <v>6</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="15"/>
@@ -2001,16 +2001,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="15"/>
@@ -2020,16 +2020,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="15"/>
@@ -2045,10 +2045,10 @@
         <v>12</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="15"/>
@@ -2058,16 +2058,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="15"/>
@@ -2080,13 +2080,13 @@
         <v>13</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="15"/>
@@ -2099,13 +2099,13 @@
         <v>3</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="15"/>
@@ -2115,16 +2115,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>77</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="15"/>
@@ -2137,13 +2137,13 @@
         <v>14</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="15"/>
@@ -2153,16 +2153,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="15"/>
@@ -2172,16 +2172,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="15"/>
@@ -2191,16 +2191,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="15"/>
@@ -2210,16 +2210,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>87</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="15"/>
@@ -2229,16 +2229,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>93</v>
-      </c>
       <c r="D40" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="15"/>
@@ -2251,13 +2251,13 @@
         <v>15</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="15"/>
@@ -2267,16 +2267,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="15"/>
@@ -2286,16 +2286,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="15"/>
@@ -2305,16 +2305,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="15"/>
@@ -2324,16 +2324,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="15"/>
@@ -2343,16 +2343,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="15"/>
@@ -2362,16 +2362,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="15"/>
@@ -2381,16 +2381,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2398,16 +2398,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2415,16 +2415,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2432,16 +2432,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2449,16 +2449,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="D52" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2466,16 +2466,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="D53" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2505,7 +2505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB990EC0-FFAA-B74E-9EDF-7CD3623B7898}">
   <dimension ref="A1:BH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AQ2" s="41" t="str">
         <f>+B43</f>
-        <v>Lern-Lösungs-Skript</v>
+        <v>Lösungs-Skript</v>
       </c>
       <c r="AR2" s="40" t="str">
         <f>+B44</f>
@@ -2958,16 +2958,16 @@
         <v>Network</v>
       </c>
       <c r="BD2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="BE2" s="33" t="s">
+      <c r="BF2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="BF2" s="33" t="s">
+      <c r="BG2" s="33" t="s">
         <v>31</v>
-      </c>
-      <c r="BG2" s="33" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:59">
@@ -12079,7 +12079,7 @@
       </c>
       <c r="B43" s="37" t="str">
         <f>IF(Objekte!B42="","",Objekte!B42)</f>
-        <v>Lern-Lösungs-Skript</v>
+        <v>Lösungs-Skript</v>
       </c>
       <c r="C43" s="13" t="str">
         <f t="shared" si="18"/>
@@ -15028,7 +15028,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="5"/>
       <c r="C57" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" s="9">
         <f>MIN(C$56:BB$56)</f>
@@ -15039,14 +15039,14 @@
         <v>18</v>
       </c>
       <c r="BH57" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:60">
       <c r="A58" s="6"/>
       <c r="B58" s="5"/>
       <c r="C58" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" s="9">
         <f>MAX(C$56:BB$56)</f>
@@ -15057,7 +15057,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="5"/>
       <c r="C59" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="22">
         <f>AVERAGE(C$56:BB$56)</f>
@@ -15107,282 +15107,282 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="C12" t="s">
         <v>132</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>133</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
         <v>132</v>
       </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
         <v>132</v>
       </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" t="s">
         <v>132</v>
       </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" t="s">
-        <v>131</v>
-      </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>132</v>
-      </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
-      </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>132</v>
-      </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -15390,18 +15390,18 @@
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
         <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29">
         <f>COUNTIF(A$12:A$26,$A29)</f>
@@ -15418,7 +15418,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30:B35" si="1">COUNTIF(A$12:A$26,$A30)</f>
@@ -15435,7 +15435,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31">
         <f>COUNTIF(A$12:A$26,$A31)</f>
@@ -15452,7 +15452,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
@@ -15469,7 +15469,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
@@ -15486,7 +15486,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
@@ -15503,7 +15503,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
